--- a/数据整理/stocks/A股/深证主板/000799-酒鬼酒.xlsx
+++ b/数据整理/stocks/A股/深证主板/000799-酒鬼酒.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7091,4 +7092,6782 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H178"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161725</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>697.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>40.2527</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>180012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华富裕主题混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>256.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>14.8205</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>219.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8.9356</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000083</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富消费行业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>212.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.9020</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160632</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证酒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>71.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.8984</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>391.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.5259</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009542</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华富利精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>53.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.3780</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006299</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>60.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.3176</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009576</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红智远三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.1092</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>169104</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>83.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.8902</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>512690</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证酒ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>45.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.6614</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011278</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>49.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.4770</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>66.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.0658</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001054</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银新金融股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>46.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.9668</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160222</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰国证食品饮料行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>70.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.7158</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>460001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞盛世中国混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.7065</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.6866</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001631</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘中证食品饮料指数A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>65.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>95.18</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.6478</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007193</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>29.14</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.6027</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010622</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>26.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.5629</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>36.27</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.33</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.4798</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010550</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华商双擎领航混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.2781</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001632</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘中证食品饮料指数C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>49.75</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>95.18</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.2537</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005449</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.0597</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010088</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>33.09</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.9662</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>515170</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>30.87</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8366</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006615</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>18.04</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6494</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001140</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5938</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5876</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001542</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰互联网+股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5409</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010701</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5303</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010345</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5045</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001043</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银美丽城镇主题股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4827</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010623</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4669</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4604</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006604</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4220</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>483003</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银精选平衡混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>17.12</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>74.46</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4126</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001320</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>工银瑞信丰盈回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3947</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010072</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>65.35</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3835</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>11.63</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3745</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>39.75</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>97.36</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3657</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>530011</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>建信内生动力混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3584</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000742</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国泰新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3333</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010912</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>73.26</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3176</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>19.31</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3148</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>15.63</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3079</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>14.60</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2745</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2629</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>515710</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华宝中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2570</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006430</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>凯石澜龙头经济定期开放混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>81.76</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2555</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>26.13</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2430</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>25.98</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>96.81</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2390</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>10.36</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2062</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>22.80</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1984</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>460007</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业领先混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1945</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>工银量化策略混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1800</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>900029</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中信证券量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1674</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009476</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1530</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>007306</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004995</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1513</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010702</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1499</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005819</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国泰优势行业混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006616</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1229</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>96.52</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008602</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>58.33</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001398</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华泰柏瑞健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>96.16</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1070</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005544</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>银华瑞和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010176</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002594</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>工银瑞信现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>66.73</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>217020</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>招商安达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>80.80</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>006605</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011279</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华夏内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010944</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009853</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中加优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>900030</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中信证券量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010346</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>86.60</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011815</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>恒越优势精选混合型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>005894</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华夏优势精选股票</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010089</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>007307</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>165317</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>建信丰裕多策略灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>95.95</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>159843</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>招商国证食品饮料行业ETF</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001839</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>九泰久兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010073</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>65.35</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>006887</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>诺德新生活混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>000530</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>96.11</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>77.15</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>011478</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>工银美丽城镇主题股票C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>000649</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>519115</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>010801</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>009855</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>010177</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>011477</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>002585</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>建信兴利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>66.39</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>009854</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>中加优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>006034</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>富国MSCI中国A股国际通指数增强</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>010245</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>002512</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>长城久润混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>008603</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>58.33</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>010564</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>民生加银瑞利混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>35.09</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>001741</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>001742</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略精选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>004189</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>华商消费行业股票</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>009856</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>002417</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>96.11</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>66.65</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>010001</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>58.24</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>009918</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>上银核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>008437</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>65.58</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>98.24</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>010913</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>73.26</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>99.04</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>008230</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>九泰天辰量化新动力股票</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>002159</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>东吴国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>010802</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>96.17</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>516900</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>华安中证申万食品饮料ETF</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>009919</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>上银核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>010002</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>58.24</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>008438</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>65.58</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>010945</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>97.00</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>006195</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>国金量化多因子股票</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G177" t="n">
+        <v>0</v>
+      </c>
+      <c r="H177" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>006888</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>诺德新生活混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000799-酒鬼酒.xlsx
+++ b/数据整理/stocks/A股/深证主板/000799-酒鬼酒.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13870,4 +13871,9104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H239"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161725</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>928.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>39.2017</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>180012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华富裕主题混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>244.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>18.5859</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>169.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>9.9087</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000083</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富消费行业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>209.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7.9278</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160632</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证酒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.6418</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512690</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证酒ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>78.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.4969</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>475.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.9914</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009576</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红智远三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.4494</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>58.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.3878</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001054</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银新金融股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.2171</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006299</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>70.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.1554</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159928</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.6281</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001631</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘中证食品饮料指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.5066</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>169104</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>70.30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.4746</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010439</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富稳健汇盈一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>183.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.4053</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010454</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>交银施罗德内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>47.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.3515</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006408</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富消费升级混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>61.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.2266</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160222</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰国证食品饮料行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>76.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.1170</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009542</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华富利精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>41.35</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.1088</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001632</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘中证食品饮料指数C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>71.53</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.9742</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>460001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰柏瑞盛世中国混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>22.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.7892</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>29.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.7041</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>39.46</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.4995</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007193</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>31.47</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.4162</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.3369</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>515170</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>37.14</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.1216</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010622</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.0704</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>460005</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>19.55</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.9325</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519714</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>交银施罗德消费新驱动股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>18.36</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.9180</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>483003</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银精选平衡混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>16.15</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>74.62</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.8737</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>52.48</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.8712</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000294</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安生态优先混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>22.49</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.8366</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010410</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长城品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>38.69</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>70.29</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.8202</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004868</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>交银施罗德股息优化混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.8100</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010701</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.7717</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011186</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>信达澳银至诚精选混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>14.45</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.6907</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>32.97</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.6660</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005004</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>12.69</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.6345</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010345</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5797</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001140</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>82.91</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5753</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>070013</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>19.10</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.5405</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>960025</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合H</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>19.10</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.5405</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>56.97</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>97.65</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4899</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009368</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>11.85</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4515</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4464</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001320</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>工银瑞信丰盈回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.4343</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008528</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量成长混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.4291</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>515710</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华宝中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>13.53</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.4275</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010109</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富国价值增长混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.4145</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006604</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.4097</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012178</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>银华富饶精选三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>13.81</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>61.53</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.4033</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3899</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>23.41</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3886</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001043</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>工银美丽城镇主题股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>14.13</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3829</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011111</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3720</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010425</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.3716</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005449</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华夏行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>11.42</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.3712</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011911</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>10.40</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3682</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3678</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>519150</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>新华优选消费混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3318</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010623</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.3235</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>工银瑞信农业产业股票</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2974</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>610005</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>信达澳银红利回报混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2972</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006430</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>凯石澜龙头经济定期开放混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>74.44</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2971</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>519710</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>交银施罗德策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>79.50</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2948</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009988</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>信达澳银蓝筹精选股票</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2934</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>32.67</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>97.32</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2810</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001048</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>富国新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2488</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>13.42</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2483</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001496</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>工银瑞信聚焦30股票</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>87.67</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2481</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>80.63</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2474</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>121002</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>国投瑞银景气行业混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>69.55</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2473</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>28.65</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>96.76</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2435</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2398</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>15.87</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2396</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>28.27</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2346</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>460007</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业领先混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2228</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>162203</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>泰达宏利稳定混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2139</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>007306</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2056</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001069</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华泰柏瑞消费成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2048</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001796</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>汇添富安鑫智选混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1968</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>000082</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>嘉实研究阿尔法股票</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1950</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>工银量化策略混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1922</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010702</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1904</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>13.79</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1875</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010869</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>汇添富稳健欣享一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>16.32</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1812</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1732</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1705</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>009369</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1646</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1508</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001037</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>512600</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>嘉实中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>008056</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>南方上证50指数增强A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>006277</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1289</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>009476</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1240</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>952035</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>国泰君安君得诚混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>76.39</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010415</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>006605</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1211</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011477</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>82.91</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1201</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>14.01</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1191</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>009507</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>国金鑫意医药消费混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>001398</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>华泰柏瑞健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1137</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>13.22</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>96.52</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1124</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>32.58</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>96.44</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>002594</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>工银瑞信现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>73.18</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>005544</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>银华瑞和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0976</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>487021</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>工银瑞信优质精选混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0976</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>010346</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>007307</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>159843</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>招商国证食品饮料行业ETF</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>519678</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>银河消费驱动混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>011703</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>中金鑫瑞优选一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>010411</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>长城品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>70.29</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>010801</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>012080</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>55.09</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>005489</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>30.71</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>008057</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>南方上证50指数增强C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>010176</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>009508</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>国金鑫意医药消费混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>81.56</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>200016</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>长城稳健成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>80.21</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>008178</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>95.22</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>008353</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>37.00</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>006926</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>长城量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>003739</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>新华鑫弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>43.46</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>011478</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>工银美丽城镇主题股票C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>010426</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>010564</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>民生加银瑞利混合</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>25.94</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>011112</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>011824</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>80.65</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>009954</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>北信瑞丰优选成长股票</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>162214</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>泰达宏利领先中小盘混合</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>006882</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合A</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>006883</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>011912</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>000649</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>010177</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>519172</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>012081</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>55.09</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>002159</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>东吴国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>008179</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>001829</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>北信瑞丰中国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>004189</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>华商消费行业股票</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>007308</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>华宝消费升级混合</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>010802</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>004112</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>创金合信国企活力混合</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>516900</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>华安中证申万食品饮料ETF</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>012297</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>81.56</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>006278</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>011825</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>80.65</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>519173</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>012763</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分食品饮料产业主题指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>008354</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>003582</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>中金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>010416</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合C</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H223" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>012764</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分食品饮料产业主题指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H224" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>011463</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>长城量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H225" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>010921</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>民生加银润利混合</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H226" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>73.50</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H227" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>004641</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>万家量化睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H228" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>005490</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>30.71</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H229" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>010037</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H230" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>002158</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>汇添富安鑫智选混合C</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H231" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H232" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H233" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>97.46</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H234" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H235" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>012298</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H236" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H237" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H238" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H239" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000799-酒鬼酒.xlsx
+++ b/数据整理/stocks/A股/深证主板/000799-酒鬼酒.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -22971,4 +22972,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>238</v>
+      </c>
+      <c r="D2" t="n">
+        <v>165.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>177</v>
+      </c>
+      <c r="D3" t="n">
+        <v>133.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>93</v>
+      </c>
+      <c r="D4" t="n">
+        <v>54.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>79</v>
+      </c>
+      <c r="D5" t="n">
+        <v>46.22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000799-酒鬼酒.xlsx
+++ b/数据整理/stocks/A股/深证主板/000799-酒鬼酒.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -22980,7 +22981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22991,17 +22992,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -23011,14 +23032,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>238</v>
-      </c>
-      <c r="D2" t="n">
-        <v>165.8</v>
+          <t>161725</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>776.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>33.4564</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -23027,14 +23070,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>177</v>
-      </c>
-      <c r="D3" t="n">
-        <v>133.21</v>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>297.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>19.5412</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -23043,14 +23108,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>93</v>
-      </c>
-      <c r="D4" t="n">
-        <v>54.37</v>
+          <t>180012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华富裕主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>227.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>17.8595</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -23059,13 +23146,3267 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>000083</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富消费行业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>218.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7.6514</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001320</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信丰盈回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>105.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6.6716</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009542</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华富利精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.5263</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>125.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5.2013</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001054</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银新金融股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>110.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.2226</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501054</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>132.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.7788</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012748</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>41.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.6305</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009576</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红智远三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.3832</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012582</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银施罗德品质增长一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>59.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.9873</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>512690</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证酒ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>60.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.6927</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010608</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>50.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.5536</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006408</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富消费升级混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>69.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.5499</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>169104</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>65.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.4124</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160632</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华中证酒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>52.86</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.4104</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010454</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>交银施罗德内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>47.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.3676</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>952009</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.2668</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>952099</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>69.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.9397</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>27.16</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.7844</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160222</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰国证食品饮料行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>72.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.5912</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>460001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞盛世中国混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>21.20</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.2996</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>501209</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华富久食品饮料精选混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>14.59</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.2664</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012119</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信核心优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>34.87</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.2414</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004868</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>交银施罗德股息优化混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.2002</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519714</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>交银施罗德消费新驱动股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>22.59</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.1363</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010298</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富品牌驱动六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.1337</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005004</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.0186</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>515170</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.8118</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012178</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银华富饶精选三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>13.12</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>75.58</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6901</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008528</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量成长混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6777</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012239</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>惠升优势企业一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>18.31</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>80.73</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5090</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010345</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4537</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001140</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>73.93</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4250</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519710</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>交银施罗德策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3848</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012120</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银瑞信核心优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3439</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012749</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3196</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011013</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长城消费30股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2829</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007523</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇添富内需增长股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2814</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006926</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长城量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2741</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>515710</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华宝中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2721</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008025</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>14.44</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>37.75</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2715</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013289</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2489</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>79.46</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2486</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011463</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长城量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2459</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工银瑞信农业产业股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2337</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010609</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2320</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>工银量化策略混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2150</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010415</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1976</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001496</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>工银瑞信聚焦30股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1660</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007306</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1565</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012583</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>交银施罗德品质增长一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>76.89</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007307</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>013027</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>银华富久食品饮料精选混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008026</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>37.75</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005544</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>银华瑞和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007047</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长城核心优势混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008260</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长城价值优选混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010346</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011477</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>73.93</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>159736</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>天弘中证食品饮料ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004987</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>诺德新享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>159843</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>招商国证食品饮料行业ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005329</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>汇添富民安增益定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>27.36</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>200016</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>长城稳健成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>79.04</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>012297</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>007524</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇添富内需增长股票C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002512</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>长城久润混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001829</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>北信瑞丰中国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>013290</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011014</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长城消费30股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>000649</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>004189</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华商消费行业股票</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>002159</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>东吴国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011032</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012763</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分食品饮料产业主题指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>004805</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005330</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>汇添富民安增益定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>27.36</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>516900</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华安中证申万食品饮料ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>96.19</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010416</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>003182</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华富弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>012764</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分食品饮料产业主题指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>003183</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华富弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>012298</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>86</v>
+      </c>
+      <c r="D2" t="n">
+        <v>154.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>238</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>177</v>
+      </c>
+      <c r="D4" t="n">
+        <v>133.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>93</v>
+      </c>
+      <c r="D5" t="n">
+        <v>54.37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>79</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>46.22</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000799-酒鬼酒.xlsx
+++ b/数据整理/stocks/A股/深证主板/000799-酒鬼酒.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -26305,7 +26306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26316,17 +26317,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -26336,14 +26357,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>86</v>
-      </c>
-      <c r="D2" t="n">
-        <v>154.14</v>
+          <t>161725</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>688.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>23.4206</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -26352,14 +26395,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>238</v>
-      </c>
-      <c r="D3" t="n">
-        <v>165.8</v>
+          <t>180012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华富裕主题混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>173.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>12.4299</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -26368,14 +26433,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>177</v>
-      </c>
-      <c r="D4" t="n">
-        <v>133.21</v>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>161.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>9.6541</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -26384,14 +26471,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>93</v>
-      </c>
-      <c r="D5" t="n">
-        <v>54.37</v>
+          <t>000083</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富消费行业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>174.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.3320</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -26400,13 +26509,3015 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>512690</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证酒ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>59.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.6116</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012582</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德品质增长一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>51.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.5604</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001054</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银新金融股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>72.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.1970</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160632</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证酒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>49.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0974</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010454</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银施罗德内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>35.89</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.7873</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006408</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富消费升级混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>42.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.6242</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012748</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>26.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5229</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009542</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华富利精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.5022</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159736</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘中证食品饮料ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>69.41</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.4298</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>169104</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>48.91</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3499</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2537</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160222</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰国证食品饮料行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>57.34</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1067</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>460001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞盛世中国混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.38</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9392</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519714</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>交银施罗德消费新驱动股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>18.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9071</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004868</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>交银施罗德股息优化混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8129</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005004</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>15.90</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8030</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012119</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信核心优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7845</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>952004</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰君安君得明混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>76.15</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6658</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001320</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银瑞信丰盈回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6331</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>515170</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>28.95</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5993</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>501209</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华富久食品饮料精选混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5103</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>483003</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银精选平衡混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>16.49</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>67.52</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3826</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001140</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3713</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012178</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银华富饶精选三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3703</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519710</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>交银施罗德策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.92</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2839</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010345</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2825</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006926</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长城量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2748</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012913</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>方正富邦趋势领航混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>74.15</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2738</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银瑞信农业产业股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2661</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>515710</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华宝中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2189</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银量化策略混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2040</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007306</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1919</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009507</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国金鑫意医药消费混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1887</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012749</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1774</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012120</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银瑞信核心优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010072</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>80.51</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1710</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1553</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001496</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>工银瑞信聚焦30股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1410</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008025</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>11.80</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>30.57</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1333</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012583</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>交银施罗德品质增长一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013289</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1135</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011501</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>41.05</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>481008</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>76.34</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011477</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>762001</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国金国鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>481013</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>工银消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>61.85</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013027</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>银华富久食品饮料精选混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011463</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长城量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007307</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010346</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>159843</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>招商国证食品饮料行业ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008026</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>30.57</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008602</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008260</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长城价值优选混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004987</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>诺德新享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012914</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>方正富邦趋势领航混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>74.15</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>200016</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长城稳健成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>78.39</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>013290</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>159789</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>建信中证饮料主题ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009762</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国金国鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>180028</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>银华永祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>77.23</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001829</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>北信瑞丰中国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002159</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>东吴国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010073</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>80.51</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>004805</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>516900</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华安中证申万食品饮料ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>96.63</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>012763</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分食品饮料产业主题指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>970083</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>东海证券海盈6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011502</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>41.05</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>012764</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分食品饮料产业主题指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008603</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011475</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>工银消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>61.85</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>003684</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>003685</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>80</v>
+      </c>
+      <c r="D2" t="n">
+        <v>84.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>86</v>
+      </c>
+      <c r="D3" t="n">
+        <v>154.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>238</v>
+      </c>
+      <c r="D4" t="n">
+        <v>165.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>177</v>
+      </c>
+      <c r="D5" t="n">
+        <v>133.21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>93</v>
+      </c>
+      <c r="D6" t="n">
+        <v>54.37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>79</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>46.22</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000799-酒鬼酒.xlsx
+++ b/数据整理/stocks/A股/深证主板/000799-酒鬼酒.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -29400,7 +29401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29411,17 +29412,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -29431,14 +29452,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>80</v>
-      </c>
-      <c r="D2" t="n">
-        <v>84.14</v>
+          <t>161725</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>685.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>26.4083</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -29447,14 +29490,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>86</v>
-      </c>
-      <c r="D3" t="n">
-        <v>154.14</v>
+          <t>180012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华富裕主题混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>197.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>16.7319</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -29463,14 +29528,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>238</v>
-      </c>
-      <c r="D4" t="n">
-        <v>165.8</v>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>142.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.4388</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -29479,14 +29566,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>177</v>
-      </c>
-      <c r="D5" t="n">
-        <v>133.21</v>
+          <t>000083</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富消费行业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>207.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.6928</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -29495,14 +29604,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>93</v>
-      </c>
-      <c r="D6" t="n">
-        <v>54.37</v>
+          <t>512690</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证酒ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.0351</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -29511,13 +29642,4095 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>012414</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>83.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.1994</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001054</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银新金融股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>59.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.0762</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009542</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华富利精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>33.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.9223</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014044</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华富利精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>33.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.9223</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009576</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红智远三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>74.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.2754</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.8568</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012748</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.8059</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160632</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证酒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>41.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.7197</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159736</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘中证食品饮料ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.6438</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>169104</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>51.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.6189</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160222</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰国证食品饮料行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>69.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.4117</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>23.95</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.2478</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.1188</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>460001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞盛世中国混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0150</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012119</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信核心优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>19.68</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9702</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>515170</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>43.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9206</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.42</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8777</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012043</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华中证酒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.8498</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商优质成长混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>17.86</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7144</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>952004</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国泰君安君得明混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>23.32</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6506</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>501209</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华富久食品饮料精选混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6412</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001320</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信丰盈回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6386</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013347</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银丰盈回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6386</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001140</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4672</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012178</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银华富饶精选三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>12.49</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4646</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>483003</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银精选平衡混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>17.04</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>71.65</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4362</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011862</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方蓝筹成长混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>15.16</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3669</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银瑞信农业产业股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3345</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009960</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银华多元机遇混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2852</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2805</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>515710</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华宝中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>12.06</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2508</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2463</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007306</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2446</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013355</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银新金融股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2435</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2427</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>487021</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>工银瑞信优质精选混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>80.07</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2383</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011013</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长城消费30股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2324</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010345</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2152</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>501038</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银华明择多策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2006</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012749</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1986</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001496</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>工银瑞信聚焦30股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1890</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013289</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1666</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>工银量化策略混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1563</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006926</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长城量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1443</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012120</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>工银瑞信核心优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>80.51</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1405</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001193</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中金消费升级股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1300</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012312</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长城兴华优选一年定开混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007307</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>013027</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>银华富久食品饮料精选混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008260</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长城价值优选混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>159758</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华夏中证红利质量ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010346</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004995</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011463</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长城量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>233008</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>大摩消费领航混合基金</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>013290</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>159843</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>招商国证食品饮料行业ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001421</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>南方量化成长股票</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002212</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011477</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011071</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>鹏华安悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001067</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>23.07</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>180028</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>银华永祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>77.89</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012313</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长城兴华优选一年定开混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>014333</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>工银优势领航混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>31.63</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>159789</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>建信中证饮料主题ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001829</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>北信瑞丰中国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011014</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>长城消费30股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011863</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>南方蓝筹成长混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009232</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010245</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>002512</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>长城久润混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010176</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002159</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>东吴国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009634</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>鹏华安睿两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>002594</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>工银瑞信现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>68.50</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010177</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>004805</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>012615</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>东吴国企改革主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>009635</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>鹏华安睿两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>516900</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华安中证申万食品饮料ETF</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>97.00</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>012763</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分食品饮料产业主题指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>015040</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>国泰国证食品饮料行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>004486</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>嘉实稳怡债券</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>23.09</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>014334</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>工银优势领航混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>31.63</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>013501</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>003416</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001380</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>23.07</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>012764</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分食品饮料产业主题指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>012241</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>工银量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>009233</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>013152</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>003684</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>005247</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>国都量化精选混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>011072</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>鹏华安悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>007952</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>003685</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>109</v>
+      </c>
+      <c r="D2" t="n">
+        <v>103.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>80</v>
+      </c>
+      <c r="D3" t="n">
+        <v>84.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>86</v>
+      </c>
+      <c r="D4" t="n">
+        <v>154.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>238</v>
+      </c>
+      <c r="D5" t="n">
+        <v>165.8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>177</v>
+      </c>
+      <c r="D6" t="n">
+        <v>133.21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>93</v>
+      </c>
+      <c r="D7" t="n">
+        <v>54.37</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>79</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>46.22</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000799-酒鬼酒.xlsx
+++ b/数据整理/stocks/A股/深证主板/000799-酒鬼酒.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>103.59</v>
+        <v>41.93</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="D3" t="n">
-        <v>84.14</v>
+        <v>103.59</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D4" t="n">
-        <v>154.14</v>
+        <v>84.14</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>238</v>
+        <v>86</v>
       </c>
       <c r="D5" t="n">
-        <v>165.8</v>
+        <v>154.14</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>177</v>
+        <v>238</v>
       </c>
       <c r="D6" t="n">
-        <v>133.21</v>
+        <v>165.8</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>93</v>
+        <v>177</v>
       </c>
       <c r="D7" t="n">
-        <v>54.37</v>
+        <v>133.21</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>93</v>
+      </c>
+      <c r="D8" t="n">
+        <v>54.37</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>79</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>46.22</v>
       </c>
     </row>
@@ -600,6 +617,1238 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161725</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>609.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>17.3779</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>180012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华富裕主题混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>170.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.7819</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512690</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证酒ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>102.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.3244</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012414</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.6340</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009542</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华富利精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9337</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160632</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证酒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>37.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2111</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1978</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160222</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰国证食品饮料行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9418</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012043</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证酒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7458</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>71.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5964</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>487021</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银优质精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2135</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001140</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1836</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1793</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001496</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银聚焦30股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1178</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000763</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011903</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方领航优选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159758</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏中证红利质量ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>233008</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大摩消费领航混合基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>762001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国金国鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009762</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国金国鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011904</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方领航优选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015040</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰国证食品饮料行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159789</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信中证饮料主题ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002159</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东吴国企改革主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012615</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东吴国企改革主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012763</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分食品饮料产业主题指数A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014044</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银华富利精选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011477</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.57</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012764</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分食品饮料产业主题指数C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013501</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>71.72</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4795,7 +6044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7889,7 +9138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11213,7 +12462,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20313,7 +21562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -27091,7 +28340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -30681,7 +31930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000799-酒鬼酒.xlsx
+++ b/数据整理/stocks/A股/深证主板/000799-酒鬼酒.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D2" t="n">
-        <v>41.93</v>
+        <v>44.6</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="D3" t="n">
-        <v>103.59</v>
+        <v>41.93</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="D4" t="n">
-        <v>84.14</v>
+        <v>103.59</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D5" t="n">
-        <v>154.14</v>
+        <v>84.14</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>238</v>
+        <v>86</v>
       </c>
       <c r="D6" t="n">
-        <v>165.8</v>
+        <v>154.14</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>177</v>
+        <v>238</v>
       </c>
       <c r="D7" t="n">
-        <v>133.21</v>
+        <v>165.8</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>93</v>
+        <v>177</v>
       </c>
       <c r="D8" t="n">
-        <v>54.37</v>
+        <v>133.21</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,3088 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>93</v>
+      </c>
+      <c r="D9" t="n">
+        <v>54.37</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>79</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>46.22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H80"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161725</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>485.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>19.3619</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>952004</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰君安君得明混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>64.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2805</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009576</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红智远三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>67.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1136</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160632</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证酒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>44.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6613</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>169104</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>41.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1810</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160222</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰国证食品饮料行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>73.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1399</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0945</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>070032</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实优化红利混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0634</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512690</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证酒ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>26.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0303</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>070006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实服务增值行业混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0237</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007193</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8121</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001054</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银新金融股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7823</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519714</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>交银施罗德消费新驱动股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6426</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>952035</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰君安君得诚混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6388</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006299</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5765</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000541</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华商创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5551</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>960025</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合H</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5228</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>070013</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5228</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002669</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4905</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>530011</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信内生动力混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4692</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010293</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华商量化优质精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>36.73</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4401</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001140</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4269</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005004</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4239</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.25</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4116</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>310388</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3902</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001143</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华商量化进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.76</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3820</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004895</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华商鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3801</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004868</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>交银施罗德股息优化混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3673</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519039</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长盛同德主题混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3445</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006604</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3007</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009476</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2817</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519710</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>交银施罗德策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>77.55</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2669</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004995</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2307</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519678</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银河消费驱动混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2027</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>630005</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华商动态阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1990</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000609</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华商新量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1850</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>35.55</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1563</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1332</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006049</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合A/B</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1319</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007192</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1319</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1192</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000082</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实研究阿尔法股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006605</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000279</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华商红利优选混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>519150</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>新华优选消费混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>95.26</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>165317</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>建信丰裕多策略灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004987</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>诺德新享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009853</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中加优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009415</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中邮瑞享两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>32.25</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005894</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华夏优势精选股票</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>78.96</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>003004</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>招商睿祥定期开放混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>50.61</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000649</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>519115</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002585</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>建信兴利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>59.97</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010245</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001781</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>建信现代服务业股票</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001839</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>九泰久兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>35.55</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009854</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中加优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004189</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华商消费行业股票</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009039</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>九泰久远量化驱动股票A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009416</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中邮瑞享两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>32.25</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009040</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>九泰久远量化驱动股票C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011477</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +3692,2070 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161725</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>603.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>19.3858</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>180012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华富裕主题混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>166.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>13.2431</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512690</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证酒ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7313</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012414</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>80.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5690</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009542</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华富利精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8373</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160632</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证酒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>37.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0999</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012043</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证酒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5780</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>470028</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富社会责任混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3687</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012412</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3432</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>487021</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银优质精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3032</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011862</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方蓝筹成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2738</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012690</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发消费领先混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2485</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009508</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国金鑫意医药消费混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2316</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1902</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014957</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华富消费成长股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1509</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001320</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银丰盈回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1220</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>217013</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004995</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>762001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国金国鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013347</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银丰盈回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>233008</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大摩消费领航混合基金</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009762</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国金国鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004987</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>诺德新享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014958</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华富消费成长股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014825</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇泉兴至未来一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>73.47</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009507</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国金鑫意医药消费混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>015722</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014466</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001421</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方量化成长股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009954</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>北信瑞丰优选成长股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012691</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发消费领先混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010799</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长城优选稳进六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>32.14</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010801</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002594</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银瑞信现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.34</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014467</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159789</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>建信中证饮料主题ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011863</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方蓝筹成长混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>200016</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长城稳健成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>77.86</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010245</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001829</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>北信瑞丰中国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009719</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商增浩一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>014826</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇泉兴至未来一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>73.47</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010802</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014044</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银华富利精选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009718</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商增浩一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>970073</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013939</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>970074</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>016549</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>永赢消费龙头智选混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010800</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长城优选稳进六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>32.14</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>015192</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇添富社会责任混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>015193</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇添富社会责任混合D</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>016550</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>永赢消费龙头智选混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1848,7 +6987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6044,7 +11183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9138,7 +14277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12462,7 +17601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -21562,7 +26701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -28340,7 +33479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -31928,3062 +37067,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H80"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>161725</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>招商中证白酒指数</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>485.26</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.31</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>19.3619</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>952004</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰君安君得明混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>64.96</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>84.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.2805</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009576</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>东方红智远三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>67.10</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.91</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.1136</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>160632</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华中证酒指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>44.54</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.6613</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>169104</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>41.88</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.38</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.1810</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>160222</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国泰国证食品饮料行业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>73.07</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.89</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.1399</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>003378</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>泰康策略优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>24.54</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.09</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.0945</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>070032</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>嘉实优化红利混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>25.81</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>89.47</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.0634</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>512690</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>鹏华中证酒ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>26.83</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>98.79</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.0303</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>070006</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>嘉实服务增值行业混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>19.84</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>87.74</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1.0237</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007193</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>恒越核心精选混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>11.89</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>6.83</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.8121</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001054</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>工银新金融股票</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>17.74</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>90.55</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.7823</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>519714</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>交银施罗德消费新驱动股票</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>12.93</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>84.94</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.6426</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>952035</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>国泰君安君得诚混合型集合资产管理计划</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>12.60</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>82.90</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.6388</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>006299</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>恒越核心精选混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>8.44</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>6.83</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.5765</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>000541</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华商创新成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>11.81</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.00</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.5551</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>960025</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>嘉实研究精选混合H</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>23.55</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>91.10</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.5228</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>070013</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>嘉实研究精选混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>23.55</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>91.10</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.5228</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>002669</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>华商万众创新灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>10.64</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.4905</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>530011</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>建信内生动力混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>6.80</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.29</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>6.90</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.4692</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>010293</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>华商量化优质精选混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>23.79</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>36.73</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.4401</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>001140</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>工银总回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>6.82</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>88.72</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>6.26</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.4269</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>005004</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>交银施罗德品质升级混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>8.53</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>87.83</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.4239</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>530001</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>建信恒久价值混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>12.25</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.4116</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>310388</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>申万菱信消费增长混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>86.72</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>10.03</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.3902</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>001143</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>华商量化进取灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>10.76</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>88.80</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.3820</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>004895</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>华商鑫安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>9.16</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>92.83</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.3801</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>004868</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>交银施罗德股息优化混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>7.39</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>85.81</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.3673</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>519039</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>长盛同德主题混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>11.64</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>94.99</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.3445</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>006604</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>嘉实消费精选股票A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>89.13</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.3007</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>009476</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>建信食品饮料行业股票</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>6.46</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.2817</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>519710</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>交银施罗德策略回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>77.55</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.2669</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>004995</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>广发品牌消费股票A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>91.84</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.2307</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>519678</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>银河消费驱动混合</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>87.30</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>9.05</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.2027</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>630005</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>华商动态阿尔法混合</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>76.00</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.1990</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>000609</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>华商新量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>91.10</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.1850</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>005014</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>泰康景泰回报混合A</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>8.36</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>35.55</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.1563</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>001758</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>嘉实研究增强灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>92.61</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.1332</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>006049</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>恒越研究精选混合A/B</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>82.80</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>6.25</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.1319</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>007192</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>恒越研究精选混合C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>82.80</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>6.25</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.1319</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>001858</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>建信鑫利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.1192</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>000082</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>嘉实研究阿尔法股票</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>89.95</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.1067</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>005299</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>万家成长优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0988</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>002378</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>建信弘利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>6.71</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0939</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>006605</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>嘉实消费精选股票C</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>89.13</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0905</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>000279</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>华商红利优选混合</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>75.20</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0870</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>519150</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>新华优选消费混合</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>95.26</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0788</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>165317</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>建信丰裕多策略灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>93.37</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>6.42</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0783</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>004987</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>诺德新享灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>92.81</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>9.09</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0709</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>009853</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>中加优势企业混合A</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>90.92</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0686</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>009415</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>中邮瑞享两年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>32.25</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0627</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>005894</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>华夏优势精选股票</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>92.34</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0478</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>000679</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>招商丰利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>88.13</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>7.12</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0441</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>519125</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>浦银安盛消费升级混合A</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>86.13</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0398</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>530016</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>建信恒稳价值混合</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>78.96</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>6.02</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0391</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>003004</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>招商睿祥定期开放混合</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>50.61</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0373</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>512100</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>南方中证1000ETF</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>98.85</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0367</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>005300</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>万家成长优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0326</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>000649</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>长城久鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>93.86</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0280</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>519115</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>浦银安盛红利精选混合</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>92.92</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0265</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>009043</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>九泰久信量化股票</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>92.43</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0262</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>002585</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>建信兴利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>59.97</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0234</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>010245</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>广发品牌消费股票C</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>91.84</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.0228</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>001781</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>建信现代服务业股票</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>7.71</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.0170</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>001839</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>九泰久兴灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>91.42</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>0.0165</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>005015</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>泰康景泰回报混合C</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>35.55</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0.0157</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>009854</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>中加优势企业混合C</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>90.92</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>0.0151</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>004189</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>华商消费行业股票</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>86.88</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0.0142</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>003646</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>创金合信中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>0.0097</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>009039</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>九泰久远量化驱动股票A</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>92.26</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>0.0052</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>002416</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>招商丰利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>88.13</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>7.12</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>006486</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>广发中证1000指数A</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>009416</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>中邮瑞享两年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>32.25</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>0.0032</t>
-        </is>
-      </c>
-      <c r="H74" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>519176</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>浦银安盛消费升级混合C</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>86.13</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>0.0027</t>
-        </is>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>006487</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>广发中证1000指数C</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>162413</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>华宝中证1000指数</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>94.66</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>003647</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>创金合信中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H78" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>009040</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>九泰久远量化驱动股票C</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>92.26</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H79" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>011477</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>工银总回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>88.72</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>6.26</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H80" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>